--- a/src/SiteConfiguration.xlsx
+++ b/src/SiteConfiguration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgilson1/Documents/Github/Source/PersonalSite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9E667-1C70-494B-BBE0-1E8AE8F57B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA60E9E2-D8D9-EE4D-985F-B1127E85E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{824DE1D6-8782-C541-8603-E235E0FF30D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{824DE1D6-8782-C541-8603-E235E0FF30D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Site Configuration" sheetId="1" r:id="rId1"/>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10849067-0362-044C-A9BC-03704C6B003B}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38:I38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,6 +2188,18 @@
       <c r="E31">
         <v>-156.16999999999999</v>
       </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31" s="25">
+        <v>44501</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -2205,6 +2217,15 @@
       <c r="E32">
         <v>-155.19999999999999</v>
       </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="I32" s="25">
+        <v>44531</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -2289,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" s="24" t="s">
         <v>172</v>
@@ -2855,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87417D-FB3F-0F46-9EBF-75F2E9032A55}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/SiteConfiguration.xlsx
+++ b/src/SiteConfiguration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgilson1/Documents/Github/Source/PersonalSite/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA60E9E2-D8D9-EE4D-985F-B1127E85E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408172D8-AD3D-7E4A-A31D-C70FE0966A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{824DE1D6-8782-C541-8603-E235E0FF30D8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
   <si>
     <t>image</t>
   </si>
@@ -636,9 +636,6 @@
     <t>May-19, Sep-21</t>
   </si>
   <si>
-    <t>Coming Jan-2022</t>
-  </si>
-  <si>
     <t>May-19, August-21</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
   </si>
   <si>
     <t>https://www.prideofmaui.com/blog/hawaii/top-20-hawaii-snorkeling-spots</t>
-  </si>
-  <si>
-    <t>http://samx-paswd-ui-node-svc-mkamaal-test.faas-ctc-dev.optum.com/</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10849067-0362-044C-A9BC-03704C6B003B}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="25">
         <v>44044</v>
@@ -1638,6 +1632,18 @@
       <c r="E5">
         <v>-102.5</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5" s="25">
+        <v>43617</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1655,18 +1661,6 @@
       <c r="E6">
         <v>-103.25</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6" s="25">
-        <v>43617</v>
-      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1737,7 +1731,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9" s="25">
         <v>43586</v>
@@ -1766,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>171</v>
@@ -1795,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I11" s="25">
         <v>43586</v>
@@ -1892,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I16" s="25">
         <v>43586</v>
@@ -2086,7 +2080,7 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="25">
         <v>43586</v>
@@ -2132,7 +2126,7 @@
         <v>18</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I28" s="25">
         <v>44440</v>
@@ -2223,6 +2217,9 @@
       <c r="G32">
         <v>20</v>
       </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
       <c r="I32" s="25">
         <v>44531</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I34" s="25">
         <v>42522</v>
@@ -2313,10 +2310,10 @@
         <v>21</v>
       </c>
       <c r="H36">
-        <v>21</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>172</v>
+        <v>16</v>
+      </c>
+      <c r="I36" s="25">
+        <v>44562</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2461,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I44" s="25">
         <v>44440</v>
@@ -2609,10 +2606,10 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2648,18 +2645,6 @@
       <c r="E54">
         <v>-118.68</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>15</v>
-      </c>
-      <c r="H54">
-        <v>11</v>
-      </c>
-      <c r="I54" s="25">
-        <v>44348</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -2677,6 +2662,18 @@
       <c r="E55">
         <v>-78.349999999999994</v>
       </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55" s="25">
+        <v>44348</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -2769,7 +2766,7 @@
         <v>11</v>
       </c>
       <c r="H60">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I60" s="25">
         <v>43617</v>
@@ -2818,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2874,37 +2871,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D87417D-FB3F-0F46-9EBF-75F2E9032A55}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
